--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Talentify\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Talentify\Selenium\p5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBC75D-C660-49A1-9B94-75D1FDB4855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC1171-83CC-4E73-AFE5-FB01D3070260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27756" yWindow="732" windowWidth="17280" windowHeight="10548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserData" sheetId="1" r:id="rId1"/>
+    <sheet name="Employees" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Username</t>
   </si>
@@ -70,13 +71,64 @@
   </si>
   <si>
     <t>Loves experimenting with new recipes and flavors.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Mark Lee</t>
+  </si>
+  <si>
+    <t>Lisa Ray</t>
+  </si>
+  <si>
+    <t>Paul Kim</t>
+  </si>
+  <si>
+    <t>Anna Cox</t>
+  </si>
+  <si>
+    <t>Bill Nash</t>
+  </si>
+  <si>
+    <t>Sara Yu</t>
+  </si>
+  <si>
+    <t>Alan Roy</t>
+  </si>
+  <si>
+    <t>Emma Fox</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +143,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF191C20"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -121,6 +179,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -470,4 +530,131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9ADD77-1D1E-4184-969D-C521C5682729}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>